--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -11,15 +11,15 @@
     <sheet name="fasta" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$E$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fasta!$E$1:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fasta!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>C (4.6)</t>
   </si>
@@ -45,16 +45,16 @@
     <t>Perl (5.14)</t>
   </si>
   <si>
-    <t>Java (1.6)</t>
-  </si>
-  <si>
-    <t>Erlang HiPE (3.8)</t>
+    <t>Ruby (1.9)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -83,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,10 +108,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="117"/>
+      <c14:style val="133"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="17"/>
+      <c:style val="33"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -120,12 +121,40 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>fannkuch-redux n=12</a:t>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> CLBG:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>fasta n=25000000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -144,14 +173,23 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time (secs)</c:v>
+            <c:v>Time (secs.)</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'fannkuch-redux'!$A$16:$A$23</c:f>
+              <c:f>fasta!$A$16:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Perl (5.14)</c:v>
                 </c:pt>
@@ -159,21 +197,24 @@
                   <c:v>Python (3.2)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Ruby (1.9)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Erlang (HiPE 3.8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Objeck (3.1)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ocaml (3.12)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Java (server 1.6)</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Haskell GHC (7.1)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Objeck (3.1)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Erlang HiPE (3.8)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Java (1.6)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ocaml (3.12)</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>C (4.6)</c:v>
                 </c:pt>
               </c:strCache>
@@ -181,33 +222,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'fannkuch-redux'!$B$16:$B$23</c:f>
+              <c:f>fasta!$B$16:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2285.4789999999998</c:v>
+                  <c:v>230.57600000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1745.1403333333335</c:v>
+                  <c:v>157.83133333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>422.70633333333336</c:v>
+                  <c:v>157.45599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.97666666666669</c:v>
+                  <c:v>96.064999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>155.02233333333334</c:v>
+                  <c:v>57.243333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.334000000000003</c:v>
+                  <c:v>9.838000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.846333333333327</c:v>
+                  <c:v>8.1603333333333321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.474666666666671</c:v>
+                  <c:v>7.9379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0179999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -222,39 +266,48 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="53369856"/>
-        <c:axId val="123482048"/>
+        <c:overlap val="-25"/>
+        <c:axId val="49321984"/>
+        <c:axId val="118308864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53369856"/>
+        <c:axId val="49321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123482048"/>
+        <c:crossAx val="118308864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123482048"/>
+        <c:axId val="118308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53369856"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="49321984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -283,10 +336,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="117"/>
+      <c14:style val="133"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="17"/>
+      <c:style val="33"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -296,13 +349,45 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>fasta n=25,000,000</a:t>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CLBG: fannkuch-redux</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> n=12</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1" i="0">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -320,36 +405,48 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time (secs)</c:v>
+            <c:v>Time (secs.)</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>fasta!$A$16:$A$23</c:f>
+              <c:f>'fannkuch-redux'!$A$16:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Ruby (1.9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Perl (5.14)</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Python (3.2)</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Erlang HiPE (3.8)</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>Haskell GHC (7.1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Objeck (3.1)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>Erlang (HiPE 3.8)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Java (server 1.6)</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Ocaml (3.12)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Java (1.6)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Haskell GHC (7.1)</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>C (4.6)</c:v>
                 </c:pt>
               </c:strCache>
@@ -357,33 +454,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fasta!$B$16:$B$23</c:f>
+              <c:f>'fannkuch-redux'!$B$16:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>230.57600000000002</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.83133333333333</c:v>
+                  <c:v>2285.4789999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.064999999999998</c:v>
+                  <c:v>1745.1403333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.243333333333339</c:v>
+                  <c:v>422.70633333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.838000000000001</c:v>
+                  <c:v>172.97666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1603333333333321</c:v>
+                  <c:v>155.02233333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9379999999999997</c:v>
+                  <c:v>58.334000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0179999999999998</c:v>
+                  <c:v>49.846333333333327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.474666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,11 +498,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="46967808"/>
-        <c:axId val="113965248"/>
+        <c:overlap val="-25"/>
+        <c:axId val="102509568"/>
+        <c:axId val="88412096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46967808"/>
+        <c:axId val="102509568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +512,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113965248"/>
+        <c:crossAx val="88412096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -419,18 +520,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113965248"/>
+        <c:axId val="88412096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46967808"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="102509568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -456,20 +563,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>714374</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -484,28 +591,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -513,7 +617,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -809,13 +913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.28515625"/>
     <col min="2" max="6" width="10.7109375"/>
@@ -824,7 +928,7 @@
     <col min="9" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,252 +945,280 @@
         <v>46.744</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" ref="E1:E8" si="0">AVERAGE(B1:D1)</f>
+        <f t="shared" ref="E1" si="0">AVERAGE(B1:D1)</f>
         <v>47.474666666666671</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <f>58*60</f>
+        <v>3480</v>
+      </c>
+      <c r="C2" s="1">
+        <f>58*60</f>
+        <v>3480</v>
+      </c>
+      <c r="D2" s="1">
+        <f>58*60</f>
+        <v>3480</v>
+      </c>
+      <c r="E2" s="1">
+        <f>58*60</f>
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <f>SUM(38*60+5.479)</f>
         <v>2285.4789999999998</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <f>SUM(38*60+5.479)</f>
         <v>2285.4789999999998</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <f>SUM(38*60+5.479)</f>
         <v>2285.4789999999998</v>
       </c>
-      <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
+      <c r="E3" s="1">
+        <f>AVERAGE(B3:D3)</f>
         <v>2285.4789999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <f>SUM(29*60+4.387)</f>
         <v>1744.3869999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>SUM(29*60+5.517)</f>
         <v>1745.5170000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <f>SUM(29*60+5.517)</f>
         <v>1745.5170000000001</v>
       </c>
-      <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+      <c r="E4" s="1">
+        <f>AVERAGE(B4:D4)</f>
         <v>1745.1403333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <f>SUM(7*60+2.047)</f>
         <v>422.04700000000003</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f>SUM(7*60+2.202)</f>
         <v>422.202</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <f>SUM(7*60+3.87)</f>
         <v>423.87</v>
       </c>
-      <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+      <c r="E5" s="1">
+        <f>AVERAGE(B5:D5)</f>
         <v>422.70633333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f>SUM(2*60+52.983)</f>
         <v>172.983</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>SUM(2*60+53.029)</f>
         <v>173.029</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>SUM(2*60+52.918)</f>
         <v>172.91800000000001</v>
       </c>
-      <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+      <c r="E6" s="1">
+        <f>AVERAGE(B6:D6)</f>
         <v>172.97666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>SUM(2*60+17.963)</f>
         <v>137.96299999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>SUM(2*60+43.552)</f>
         <v>163.55199999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>SUM(2*60+43.552)</f>
         <v>163.55199999999999</v>
       </c>
-      <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+      <c r="E7" s="1">
+        <f>AVERAGE(B7:D7)</f>
         <v>155.02233333333334</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <f>SUM(0*60+58.334)</f>
         <v>58.334000000000003</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>SUM(0*60+58.334)</f>
         <v>58.334000000000003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f>SUM(0*60+58.334)</f>
         <v>58.334000000000003</v>
       </c>
-      <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+      <c r="E8" s="1">
+        <f>AVERAGE(B8:D8)</f>
         <v>58.334000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9">
         <f>SUM(0*60+49.871)</f>
         <v>49.871000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f>SUM(0*60+49.933)</f>
         <v>49.933</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <f>SUM(0*60+49.735)</f>
         <v>49.734999999999999</v>
       </c>
-      <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+      <c r="E9" s="1">
+        <f>AVERAGE(B9:D9)</f>
         <v>49.846333333333327</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>2285.4789999999998</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3480</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>1745.1403333333335</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2285.4789999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>422.70633333333336</v>
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1745.1403333333335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>172.97666666666669</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>422.70633333333336</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>155.02233333333334</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>172.97666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>58.334000000000003</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>155.02233333333334</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>58.334000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="2">
         <v>49.846333333333327</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="2">
         <v>47.474666666666671</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E8">
-    <sortState ref="A2:E8">
-      <sortCondition descending="1" ref="E1:E8"/>
+  <autoFilter ref="A1:E9">
+    <sortState ref="A2:E9">
+      <sortCondition descending="1" ref="E1:E9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.7109375"/>
     <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,11 +1235,11 @@
         <v>4.0380000000000003</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" ref="E1:E8" si="0">AVERAGE(B1:D1)</f>
+        <f t="shared" ref="E1" si="0">AVERAGE(B1:D1)</f>
         <v>4.0179999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1260,7 @@
         <v>230.57600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1149,108 +1281,129 @@
         <v>157.83133333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(2*60+38.748)</f>
+        <v>158.74799999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(2*60+36.6)</f>
+        <v>156.6</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(2*60+37.02)</f>
+        <v>157.02000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <f>AVERAGE(B4:D4)</f>
+        <v>157.45599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <f>SUM(1*60+35.877)</f>
         <v>95.87700000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f>SUM(1*60+35.821)</f>
         <v>95.820999999999998</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <f>SUM(1*60+36.497)</f>
         <v>96.497</v>
       </c>
-      <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+      <c r="E5" s="1">
+        <f>AVERAGE(B5:D5)</f>
         <v>96.064999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f>SUM(0*60+56.626)</f>
         <v>56.625999999999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>SUM(0*60+57.072)</f>
         <v>57.072000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>SUM(0*60+58.032)</f>
         <v>58.031999999999996</v>
       </c>
-      <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+      <c r="E6" s="1">
+        <f>AVERAGE(B6:D6)</f>
         <v>57.243333333333339</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>SUM(0*60+9.418)</f>
         <v>9.4179999999999993</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>SUM(0*60+10.53)</f>
         <v>10.53</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>SUM(0*60+9.566)</f>
         <v>9.5660000000000007</v>
       </c>
-      <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+      <c r="E7" s="1">
+        <f>AVERAGE(B7:D7)</f>
         <v>9.838000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <f>SUM(0*60+8.998)</f>
         <v>8.9979999999999993</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>SUM(0*60+8.082)</f>
         <v>8.0820000000000007</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f>SUM(0*60+7.401)</f>
         <v>7.4009999999999998</v>
       </c>
-      <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+      <c r="E8" s="1">
+        <f>AVERAGE(B8:D8)</f>
         <v>8.1603333333333321</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9">
         <f>SUM(0*60+7.97)</f>
         <v>7.97</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9">
         <f>SUM(0*60+7.949)</f>
         <v>7.9489999999999998</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9">
         <f>SUM(0*60+7.895)</f>
         <v>7.8949999999999996</v>
       </c>
-      <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+      <c r="E9" s="1">
+        <f>AVERAGE(B9:D9)</f>
         <v>7.9379999999999997</v>
       </c>
     </row>
@@ -1258,7 +1411,7 @@
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>230.57600000000002</v>
       </c>
     </row>
@@ -1266,70 +1419,78 @@
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>157.83133333333333</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>96.064999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>157.45599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>57.243333333333339</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>96.064999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>9.838000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>57.243333333333339</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8.1603333333333321</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9.838000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8.1603333333333321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="2">
         <v>7.9379999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="2">
         <v>4.0179999999999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E22">
-    <sortState ref="A2:E23">
-      <sortCondition descending="1" ref="E1:E23"/>
+  <autoFilter ref="A1:E9">
+    <sortState ref="A2:E9">
+      <sortCondition descending="1" ref="E1:E9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="269" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="269"/>
   </bookViews>
   <sheets>
     <sheet name="fannkuch-redux" sheetId="1" r:id="rId1"/>
     <sheet name="fasta" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$A$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fasta!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fasta!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>C (4.6)</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Ruby (1.9)</t>
+  </si>
+  <si>
+    <t>JRuby (1.5)</t>
   </si>
 </sst>
 </file>
@@ -172,9 +175,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Time (secs.)</c:v>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -187,34 +187,37 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>fasta!$A$16:$A$24</c:f>
+              <c:f>fasta!$A$17:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Perl (5.14)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>JRuby (1.5)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Python (3.2)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Ruby (1.9)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Erlang (HiPE 3.8)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Objeck (3.1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Ocaml (3.12)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Java (server 1.6)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Haskell GHC (7.1)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>C (4.6)</c:v>
                 </c:pt>
               </c:strCache>
@@ -222,35 +225,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>fasta!$B$16:$B$24</c:f>
+              <c:f>fasta!$B$17:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>230.57600000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>208.63366666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>157.83133333333333</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>157.45599999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>96.064999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>57.243333333333339</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>9.838000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8.1603333333333321</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.9379999999999997</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9" formatCode="General">
                   <c:v>4.0179999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -404,9 +410,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Time (secs.)</c:v>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -419,9 +422,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'fannkuch-redux'!$A$16:$A$24</c:f>
+              <c:f>'fannkuch-redux'!$A$17:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Ruby (1.9)</c:v>
                 </c:pt>
@@ -432,21 +435,24 @@
                   <c:v>Python (3.2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>JRuby (1.5)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Haskell GHC (7.1)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Objeck (3.1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Erlang (HiPE 3.8)</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Java (server 1.6)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Ocaml (3.12)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>C (4.6)</c:v>
                 </c:pt>
               </c:strCache>
@@ -454,12 +460,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'fannkuch-redux'!$B$16:$B$24</c:f>
+              <c:f>'fannkuch-redux'!$B$17:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3480</c:v>
+                  <c:v>3820.2640000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2285.4789999999998</c:v>
@@ -468,21 +474,24 @@
                   <c:v>1745.1403333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1544.0173333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>422.70633333333336</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>172.97666666666669</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>155.02233333333334</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>58.334000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>49.846333333333327</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>47.474666666666671</c:v>
                 </c:pt>
               </c:numCache>
@@ -565,13 +574,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>52386</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -595,13 +604,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -913,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -928,46 +937,26 @@
     <col min="9" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <f>SUM(0*60+46.749)</f>
-        <v>46.749000000000002</v>
-      </c>
-      <c r="C1" s="1">
-        <f>SUM(0*60+48.931)</f>
-        <v>48.930999999999997</v>
-      </c>
-      <c r="D1" s="1">
-        <f>SUM(0*60+46.744)</f>
-        <v>46.744</v>
-      </c>
-      <c r="E1" s="1">
-        <f t="shared" ref="E1" si="0">AVERAGE(B1:D1)</f>
-        <v>47.474666666666671</v>
-      </c>
-    </row>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <f>58*60</f>
-        <v>3480</v>
+        <f>SUM(63*60+40.264)</f>
+        <v>3820.2640000000001</v>
       </c>
       <c r="C2" s="1">
-        <f>58*60</f>
-        <v>3480</v>
+        <f>SUM(63*60+40.264)</f>
+        <v>3820.2640000000001</v>
       </c>
       <c r="D2" s="1">
-        <f>58*60</f>
-        <v>3480</v>
+        <f>SUM(63*60+40.264)</f>
+        <v>3820.2640000000001</v>
       </c>
       <c r="E2" s="1">
-        <f>58*60</f>
-        <v>3480</v>
+        <f>AVERAGE(B2:D2)</f>
+        <v>3820.2640000000006</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,185 +1003,235 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <f>SUM(25*60+41.044)</f>
+        <v>1541.0440000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM(25*60+49.964)</f>
+        <v>1549.9639999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <f>SUM(25*60+41.044)</f>
+        <v>1541.0440000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f>AVERAGE(B5:D5)</f>
+        <v>1544.0173333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f>SUM(7*60+2.047)</f>
         <v>422.04700000000003</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>SUM(7*60+2.202)</f>
         <v>422.202</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>SUM(7*60+3.87)</f>
         <v>423.87</v>
       </c>
-      <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+      <c r="E6" s="1">
+        <f>AVERAGE(B6:D6)</f>
         <v>422.70633333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>SUM(2*60+52.983)</f>
         <v>172.983</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>SUM(2*60+53.029)</f>
         <v>173.029</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>SUM(2*60+52.918)</f>
         <v>172.91800000000001</v>
       </c>
-      <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+      <c r="E7" s="1">
+        <f>AVERAGE(B7:D7)</f>
         <v>172.97666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <f>SUM(2*60+17.963)</f>
         <v>137.96299999999999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>SUM(2*60+43.552)</f>
         <v>163.55199999999999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f>SUM(2*60+43.552)</f>
         <v>163.55199999999999</v>
       </c>
-      <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+      <c r="E8" s="1">
+        <f>AVERAGE(B8:D8)</f>
         <v>155.02233333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <f>SUM(0*60+58.334)</f>
         <v>58.334000000000003</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f>SUM(0*60+58.334)</f>
         <v>58.334000000000003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <f>SUM(0*60+58.334)</f>
         <v>58.334000000000003</v>
       </c>
-      <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+      <c r="E9" s="1">
+        <f>AVERAGE(B9:D9)</f>
         <v>58.334000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>SUM(0*60+49.871)</f>
         <v>49.871000000000002</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f>SUM(0*60+49.933)</f>
         <v>49.933</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <f>SUM(0*60+49.735)</f>
         <v>49.734999999999999</v>
       </c>
-      <c r="E9" s="1">
-        <f>AVERAGE(B9:D9)</f>
+      <c r="E10" s="1">
+        <f>AVERAGE(B10:D10)</f>
         <v>49.846333333333327</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3480</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>SUM(0*60+46.749)</f>
+        <v>46.749000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(0*60+48.931)</f>
+        <v>48.930999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUM(0*60+46.744)</f>
+        <v>46.744</v>
+      </c>
+      <c r="E11" s="1">
+        <f>AVERAGE(B11:D11)</f>
+        <v>47.474666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>2285.4789999999998</v>
+        <v>3820.2640000000006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
-        <v>1745.1403333333335</v>
+        <v>2285.4789999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>422.70633333333336</v>
+        <v>1745.1403333333335</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
-        <v>172.97666666666669</v>
+        <v>1544.0173333333332</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>155.02233333333334</v>
+        <v>422.70633333333336</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>172.97666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>155.02233333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24" s="2">
         <v>58.334000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>49.846333333333327</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="2">
         <v>47.474666666666671</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E9">
-    <sortState ref="A2:E9">
-      <sortCondition descending="1" ref="E1:E9"/>
+  <autoFilter ref="A1:E11">
+    <sortState ref="A2:E11">
+      <sortCondition descending="1" ref="E1:E11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1206,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1218,27 +1257,7 @@
     <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <f>SUM(0*60+4.008)</f>
-        <v>4.008</v>
-      </c>
-      <c r="C1" s="1">
-        <f>SUM(0*60+4.008)</f>
-        <v>4.008</v>
-      </c>
-      <c r="D1" s="1">
-        <f>SUM(0*60+4.038)</f>
-        <v>4.0380000000000003</v>
-      </c>
-      <c r="E1" s="1">
-        <f t="shared" ref="E1" si="0">AVERAGE(B1:D1)</f>
-        <v>4.0179999999999998</v>
-      </c>
-    </row>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
@@ -1262,227 +1281,277 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(3*60+27.882)</f>
+        <v>207.88200000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(3*60+25.34)</f>
+        <v>205.34</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(3*60+32.679)</f>
+        <v>212.679</v>
+      </c>
+      <c r="E3" s="1">
+        <f>AVERAGE(B3:D3)</f>
+        <v>208.63366666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <f>SUM(2*60+36.946)</f>
         <v>156.946</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>SUM(2*60+37.732)</f>
         <v>157.732</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <f>SUM(2*60+38.816)</f>
         <v>158.816</v>
       </c>
-      <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+      <c r="E4" s="1">
+        <f>AVERAGE(B4:D4)</f>
         <v>157.83133333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <f>SUM(2*60+38.748)</f>
         <v>158.74799999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f>SUM(2*60+36.6)</f>
         <v>156.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <f>SUM(2*60+37.02)</f>
         <v>157.02000000000001</v>
       </c>
-      <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+      <c r="E5" s="1">
+        <f>AVERAGE(B5:D5)</f>
         <v>157.45599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f>SUM(1*60+35.877)</f>
         <v>95.87700000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>SUM(1*60+35.821)</f>
         <v>95.820999999999998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>SUM(1*60+36.497)</f>
         <v>96.497</v>
       </c>
-      <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+      <c r="E6" s="1">
+        <f>AVERAGE(B6:D6)</f>
         <v>96.064999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>SUM(0*60+56.626)</f>
         <v>56.625999999999998</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>SUM(0*60+57.072)</f>
         <v>57.072000000000003</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>SUM(0*60+58.032)</f>
         <v>58.031999999999996</v>
       </c>
-      <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+      <c r="E7" s="1">
+        <f>AVERAGE(B7:D7)</f>
         <v>57.243333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <f>SUM(0*60+9.418)</f>
         <v>9.4179999999999993</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>SUM(0*60+10.53)</f>
         <v>10.53</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f>SUM(0*60+9.566)</f>
         <v>9.5660000000000007</v>
       </c>
-      <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+      <c r="E8" s="1">
+        <f>AVERAGE(B8:D8)</f>
         <v>9.838000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <f>SUM(0*60+8.998)</f>
         <v>8.9979999999999993</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f>SUM(0*60+8.082)</f>
         <v>8.0820000000000007</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <f>SUM(0*60+7.401)</f>
         <v>7.4009999999999998</v>
       </c>
-      <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+      <c r="E9" s="1">
+        <f>AVERAGE(B9:D9)</f>
         <v>8.1603333333333321</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>SUM(0*60+7.97)</f>
         <v>7.97</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f>SUM(0*60+7.949)</f>
         <v>7.9489999999999998</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>SUM(0*60+7.895)</f>
         <v>7.8949999999999996</v>
       </c>
-      <c r="E9" s="1">
-        <f>AVERAGE(B9:D9)</f>
+      <c r="E10" s="1">
+        <f>AVERAGE(B10:D10)</f>
         <v>7.9379999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>230.57600000000002</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>SUM(0*60+4.008)</f>
+        <v>4.008</v>
+      </c>
+      <c r="C11">
+        <f>SUM(0*60+4.008)</f>
+        <v>4.008</v>
+      </c>
+      <c r="D11">
+        <f>SUM(0*60+4.038)</f>
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <f>AVERAGE(B11:D11)</f>
+        <v>4.0179999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>157.83133333333333</v>
+        <v>230.57600000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>157.45599999999999</v>
+        <v>208.63366666666664</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>96.064999999999998</v>
+        <v>157.83133333333333</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>57.243333333333339</v>
+        <v>157.45599999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2">
-        <v>9.838000000000001</v>
+        <v>96.064999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>57.243333333333339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.838000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24" s="2">
         <v>8.1603333333333321</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="2">
         <v>7.9379999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26">
         <v>4.0179999999999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E9">
-    <sortState ref="A2:E9">
-      <sortCondition descending="1" ref="E1:E9"/>
+  <autoFilter ref="A1:E11">
+    <sortState ref="A2:E11">
+      <sortCondition descending="1" ref="E1:E11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="269"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="269" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fannkuch-redux" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
                   <c:v>96.064999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.243333333333339</c:v>
+                  <c:v>53.200333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.838000000000001</c:v>
@@ -273,11 +273,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="49321984"/>
-        <c:axId val="118308864"/>
+        <c:axId val="110497280"/>
+        <c:axId val="70358080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49321984"/>
+        <c:axId val="110497280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -287,7 +287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118308864"/>
+        <c:crossAx val="70358080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -296,7 +296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118308864"/>
+        <c:axId val="70358080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +313,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49321984"/>
+        <c:crossAx val="110497280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -508,11 +508,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="102509568"/>
-        <c:axId val="88412096"/>
+        <c:axId val="111645184"/>
+        <c:axId val="70359808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102509568"/>
+        <c:axId val="111645184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88412096"/>
+        <c:crossAx val="70359808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88412096"/>
+        <c:axId val="70359808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +546,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="102509568"/>
+        <c:crossAx val="111645184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -955,7 +955,7 @@
         <v>3820.2640000000001</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="E2:E11" si="0">AVERAGE(B2:D2)</f>
         <v>3820.2640000000006</v>
       </c>
     </row>
@@ -976,7 +976,7 @@
         <v>2285.4789999999998</v>
       </c>
       <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>2285.4789999999998</v>
       </c>
     </row>
@@ -997,7 +997,7 @@
         <v>1745.5170000000001</v>
       </c>
       <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>1745.1403333333335</v>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>1541.0440000000001</v>
       </c>
       <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>1544.0173333333332</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <v>423.87</v>
       </c>
       <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>422.70633333333336</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>172.91800000000001</v>
       </c>
       <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>172.97666666666669</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
         <v>163.55199999999999</v>
       </c>
       <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>155.02233333333334</v>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
         <v>58.334000000000003</v>
       </c>
       <c r="E9" s="1">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>58.334000000000003</v>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
         <v>49.734999999999999</v>
       </c>
       <c r="E10" s="1">
-        <f>AVERAGE(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>49.846333333333327</v>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
         <v>46.744</v>
       </c>
       <c r="E11" s="1">
-        <f>AVERAGE(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>47.474666666666671</v>
       </c>
     </row>
@@ -1245,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1257,8 +1257,8 @@
     <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1275,11 +1275,11 @@
         <v>230.72300000000001</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="E2:E11" si="0">AVERAGE(B2:D2)</f>
         <v>230.57600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1296,11 +1296,27 @@
         <v>212.679</v>
       </c>
       <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>208.63366666666664</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>SUM(0*60+53.251)</f>
+        <v>53.250999999999998</v>
+      </c>
+      <c r="H3">
+        <f>SUM(0*60+53.068)</f>
+        <v>53.067999999999998</v>
+      </c>
+      <c r="I3">
+        <f>SUM(0*60+53.282)</f>
+        <v>53.281999999999996</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(G3:I3)</f>
+        <v>53.200333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1317,11 +1333,15 @@
         <v>158.816</v>
       </c>
       <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>157.83133333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>1-J3/E7</f>
+        <v>7.062831188493579E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1338,11 +1358,11 @@
         <v>157.02000000000001</v>
       </c>
       <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>157.45599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1359,11 +1379,11 @@
         <v>96.497</v>
       </c>
       <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>96.064999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1380,11 +1400,11 @@
         <v>58.031999999999996</v>
       </c>
       <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>57.243333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1401,11 +1421,11 @@
         <v>9.5660000000000007</v>
       </c>
       <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>9.838000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1422,11 +1442,11 @@
         <v>7.4009999999999998</v>
       </c>
       <c r="E9" s="1">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>8.1603333333333321</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1443,11 +1463,11 @@
         <v>7.8949999999999996</v>
       </c>
       <c r="E10" s="1">
-        <f>AVERAGE(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>7.9379999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>4.0380000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f>AVERAGE(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>4.0179999999999998</v>
       </c>
     </row>
@@ -1513,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>57.243333333333339</v>
+        <v>53.200333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">

--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -273,11 +273,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110497280"/>
-        <c:axId val="70358080"/>
+        <c:axId val="110235136"/>
+        <c:axId val="66950208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110497280"/>
+        <c:axId val="110235136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -287,7 +287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70358080"/>
+        <c:crossAx val="66950208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -296,7 +296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70358080"/>
+        <c:axId val="66950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +313,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110497280"/>
+        <c:crossAx val="110235136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -508,11 +508,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="111645184"/>
-        <c:axId val="70359808"/>
+        <c:axId val="113746432"/>
+        <c:axId val="66951936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111645184"/>
+        <c:axId val="113746432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70359808"/>
+        <c:crossAx val="66951936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70359808"/>
+        <c:axId val="66951936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +546,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="111645184"/>
+        <c:crossAx val="113746432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -922,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:K13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,8 +937,8 @@
     <col min="9" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3820.2640000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -980,7 +980,7 @@
         <v>2285.4789999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>1745.1403333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1544.0173333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1043,28 +1043,28 @@
         <v>422.70633333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <f>SUM(2*60+52.983)</f>
-        <v>172.983</v>
+        <f>SUM(2*60+54.297)</f>
+        <v>174.297</v>
       </c>
       <c r="C7" s="1">
-        <f>SUM(2*60+53.029)</f>
-        <v>173.029</v>
+        <f>SUM(2*60+53.346)</f>
+        <v>173.346</v>
       </c>
       <c r="D7" s="1">
-        <f>SUM(2*60+52.918)</f>
-        <v>172.91800000000001</v>
+        <f>SUM(2*60+53.078)</f>
+        <v>173.078</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>172.97666666666669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>173.57366666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>155.02233333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>58.334000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>49.846333333333327</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,6 +1146,12 @@
       <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>47.474666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f>SUM(2*60+53.707)</f>
+        <v>173.70699999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -175,6 +175,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (secs)</c:v>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -273,11 +276,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110235136"/>
-        <c:axId val="66950208"/>
+        <c:axId val="97746432"/>
+        <c:axId val="77960256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110235136"/>
+        <c:axId val="97746432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -287,7 +290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66950208"/>
+        <c:crossAx val="77960256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -296,7 +299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66950208"/>
+        <c:axId val="77960256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +316,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110235136"/>
+        <c:crossAx val="97746432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -410,6 +413,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (secs)</c:v>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -508,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="113746432"/>
-        <c:axId val="66951936"/>
+        <c:axId val="109355520"/>
+        <c:axId val="77961984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113746432"/>
+        <c:axId val="109355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66951936"/>
+        <c:crossAx val="77961984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66951936"/>
+        <c:axId val="77961984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +552,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="113746432"/>
+        <c:crossAx val="109355520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1253,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -248,7 +248,7 @@
                   <c:v>96.064999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.200333333333333</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.838000000000001</c:v>
@@ -259,7 +259,7 @@
                 <c:pt idx="8">
                   <c:v>7.9379999999999997</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>4.0179999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -276,11 +276,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="97746432"/>
-        <c:axId val="77960256"/>
+        <c:axId val="113647104"/>
+        <c:axId val="81695808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97746432"/>
+        <c:axId val="113647104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,7 +290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77960256"/>
+        <c:crossAx val="81695808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -299,7 +299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77960256"/>
+        <c:axId val="81695808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +316,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97746432"/>
+        <c:crossAx val="113647104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="109355520"/>
-        <c:axId val="77961984"/>
+        <c:axId val="114799104"/>
+        <c:axId val="81697536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109355520"/>
+        <c:axId val="114799104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77961984"/>
+        <c:crossAx val="81697536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77961984"/>
+        <c:axId val="81697536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +552,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="109355520"/>
+        <c:crossAx val="114799104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,7 +931,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1257,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1269,8 +1269,8 @@
     <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>230.57600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1311,24 +1311,8 @@
         <f t="shared" si="0"/>
         <v>208.63366666666664</v>
       </c>
-      <c r="G3">
-        <f>SUM(0*60+53.251)</f>
-        <v>53.250999999999998</v>
-      </c>
-      <c r="H3">
-        <f>SUM(0*60+53.068)</f>
-        <v>53.067999999999998</v>
-      </c>
-      <c r="I3">
-        <f>SUM(0*60+53.282)</f>
-        <v>53.281999999999996</v>
-      </c>
-      <c r="J3">
-        <f>AVERAGE(G3:I3)</f>
-        <v>53.200333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1348,12 +1332,8 @@
         <f t="shared" si="0"/>
         <v>157.83133333333333</v>
       </c>
-      <c r="J4">
-        <f>1-J3/E7</f>
-        <v>7.062831188493579E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1354,7 @@
         <v>157.45599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1395,28 +1375,28 @@
         <v>96.064999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <f>SUM(0*60+56.626)</f>
-        <v>56.625999999999998</v>
+        <f>SUM(0*60+28.438)</f>
+        <v>28.437999999999999</v>
       </c>
       <c r="C7" s="1">
-        <f>SUM(0*60+57.072)</f>
-        <v>57.072000000000003</v>
+        <f>SUM(0*60+28.989)</f>
+        <v>28.989000000000001</v>
       </c>
       <c r="D7" s="1">
-        <f>SUM(0*60+58.032)</f>
-        <v>58.031999999999996</v>
+        <f>SUM(0*60+28.973)</f>
+        <v>28.972999999999999</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>57.243333333333339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1417,7 @@
         <v>9.838000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1438,7 @@
         <v>8.1603333333333321</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1459,7 @@
         <v>7.9379999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>53.200333333333333</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1576,7 +1556,7 @@
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>4.0179999999999998</v>
       </c>
     </row>

--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="269" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="353" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fannkuch-redux" sheetId="1" r:id="rId1"/>
     <sheet name="fasta" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$A$1:$E$11</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>C (4.6)</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>JRuby (1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erlang (HiPE 5.8.3) </t>
+  </si>
+  <si>
+    <t>Java (server 1.7.0)</t>
+  </si>
+  <si>
+    <t>Objeck (3.1.2)</t>
+  </si>
+  <si>
+    <t>Ruby (1.9.2)</t>
   </si>
 </sst>
 </file>
@@ -162,7 +175,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -276,11 +288,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="113647104"/>
-        <c:axId val="81695808"/>
+        <c:axId val="114691072"/>
+        <c:axId val="84645504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113647104"/>
+        <c:axId val="114691072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,7 +302,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81695808"/>
+        <c:crossAx val="84645504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -299,7 +311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81695808"/>
+        <c:axId val="84645504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,14 +328,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="113647104"/>
+        <c:crossAx val="114691072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -400,7 +411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -514,11 +524,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="114799104"/>
-        <c:axId val="81697536"/>
+        <c:axId val="115311104"/>
+        <c:axId val="84647232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114799104"/>
+        <c:axId val="115311104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +537,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81697536"/>
+        <c:crossAx val="84647232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81697536"/>
+        <c:axId val="84647232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,14 +562,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="114799104"/>
+        <c:crossAx val="115311104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -931,7 +940,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1259,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1574,4 +1583,114 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <f>SUM(26*60+47.657)</f>
+        <v>1607.6569999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(16*60+30.671)</f>
+        <v>990.67100000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(67*60+9.313)</f>
+        <v>4029.3130000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <f>SUM(27*60+51.75)</f>
+        <v>1671.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <f>SUM(1*60+11.449)</f>
+        <v>71.448999999999998</v>
+      </c>
+      <c r="C6">
+        <f>SUM(1*60+15.941)</f>
+        <v>75.941000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f>SUM(0*60+35.131)</f>
+        <v>35.131</v>
+      </c>
+      <c r="C7">
+        <f>SUM(0*60+36.028)</f>
+        <v>36.027999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM(0*60+20.933)</f>
+        <v>20.933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM(29*60+16.109)</f>
+        <v>1756.1089999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -9,18 +9,19 @@
   <sheets>
     <sheet name="fannkuch-redux" sheetId="1" r:id="rId1"/>
     <sheet name="fasta" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="mandelbrot" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fasta!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mandelbrot!$E$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>C (4.6)</t>
   </si>
@@ -63,6 +64,9 @@
   <si>
     <t>Ruby (1.9.2)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -99,10 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,6 +180,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -335,6 +341,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -583,6 +590,240 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> CLBG:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>mandelbrot n=16000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time (secs)</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>mandelbrot!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Ruby (1.9.2)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perl (5.14)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Haskell GHC (7.1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Erlang (HiPE 5.8.3) </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JRuby (1.5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Python (3.2)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Objeck (3.1.2)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ocaml (3.12)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java (server 1.7.0)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>C (4.6)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mandelbrot!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4029.3130000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3759.9110000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1756.1089999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1679.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1607.6569999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>992.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.137666666666675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.429666666666662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.352999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6236666666666659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="46140928"/>
+        <c:axId val="54225728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46140928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54225728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54225728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="46140928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -642,6 +883,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>147639</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -939,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1587,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1598,40 +1876,47 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(26*60+47.657)</f>
-        <v>1607.6569999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <f>SUM(16*60+30.671)</f>
-        <v>990.67100000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1">
         <f>SUM(67*60+9.313)</f>
         <v>4029.3130000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <f>AVERAGE(B2:D2)</f>
+        <v>4029.3130000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUM(62*60+39.911)</f>
+        <v>3759.9110000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>3759.9110000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(29*60+16.109)</f>
+        <v>1756.1089999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE(B4:D4)</f>
+        <v>1756.1089999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1639,58 +1924,170 @@
         <f>SUM(27*60+51.75)</f>
         <v>1671.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>SUM(28*60+6.37)</f>
+        <v>1686.37</v>
+      </c>
+      <c r="E5" s="3">
+        <f>AVERAGE(B5:D5)</f>
+        <v>1679.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <f>SUM(26*60+47.657)</f>
+        <v>1607.6569999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <f>AVERAGE(B6:D6)</f>
+        <v>1607.6569999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f>SUM(16*60+30.671)</f>
+        <v>990.67100000000005</v>
+      </c>
+      <c r="C7">
+        <f>SUM(16*60+33.589)</f>
+        <v>993.58899999999994</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(B7:D7)</f>
+        <v>992.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <f>SUM(1*60+11.449)</f>
         <v>71.448999999999998</v>
       </c>
-      <c r="C6">
-        <f>SUM(1*60+15.941)</f>
-        <v>75.941000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C8">
+        <f>SUM(1*60+14.769)</f>
+        <v>74.769000000000005</v>
+      </c>
+      <c r="D8">
+        <f>SUM(1*60+13.195)</f>
+        <v>73.194999999999993</v>
+      </c>
+      <c r="E8" s="3">
+        <f>AVERAGE(B8:D8)</f>
+        <v>73.137666666666675</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <f>SUM(0*60+35.131)</f>
         <v>35.131</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <f>SUM(0*60+36.028)</f>
         <v>36.027999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D9">
+        <f>SUM(0*60+35.13)</f>
+        <v>35.130000000000003</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(B9:D9)</f>
+        <v>35.429666666666662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
         <f>SUM(0*60+20.933)</f>
         <v>20.933</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <f>SUM(29*60+16.109)</f>
-        <v>1756.1089999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <f>SUM(0*60+21.305)</f>
+        <v>21.305</v>
+      </c>
+      <c r="D10">
+        <f>SUM(0*60+18.821)</f>
+        <v>18.821000000000002</v>
+      </c>
+      <c r="E10" s="3">
+        <f>AVERAGE(B10:D10)</f>
+        <v>20.352999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B11" s="1">
+        <f>SUM(0*60+6.627)</f>
+        <v>6.6269999999999998</v>
+      </c>
+      <c r="C11">
+        <f>SUM(0*60+6.596)</f>
+        <v>6.5960000000000001</v>
+      </c>
+      <c r="D11">
+        <f>SUM(0*60+6.648)</f>
+        <v>6.6479999999999997</v>
+      </c>
+      <c r="E11" s="3">
+        <f>AVERAGE(B11:D11)</f>
+        <v>6.6236666666666659</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E11">
+    <sortState ref="A2:E11">
+      <sortCondition descending="1" ref="E1:E11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="353" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="353" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fannkuch-redux" sheetId="1" r:id="rId1"/>
@@ -218,16 +218,16 @@
                   <c:v>JRuby (1.5)</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Objeck (3.1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Python (3.2)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Ruby (1.9)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Erlang (HiPE 3.8)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Objeck (3.1)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ocaml (3.12)</c:v>
@@ -257,16 +257,16 @@
                   <c:v>208.63366666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>204.55133333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>157.83133333333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>157.45599999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>96.064999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.838000000000001</c:v>
@@ -294,11 +294,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="114691072"/>
-        <c:axId val="84645504"/>
+        <c:axId val="104013312"/>
+        <c:axId val="80844416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114691072"/>
+        <c:axId val="104013312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +308,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84645504"/>
+        <c:crossAx val="80844416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -317,7 +317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84645504"/>
+        <c:axId val="80844416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,7 +334,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="114691072"/>
+        <c:crossAx val="104013312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -531,11 +531,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115311104"/>
-        <c:axId val="84647232"/>
+        <c:axId val="110408192"/>
+        <c:axId val="80846144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115311104"/>
+        <c:axId val="110408192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84647232"/>
+        <c:crossAx val="80846144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84647232"/>
+        <c:axId val="80846144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +569,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="115311104"/>
+        <c:crossAx val="110408192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,11 +762,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="46140928"/>
-        <c:axId val="54225728"/>
+        <c:axId val="110409728"/>
+        <c:axId val="110429312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46140928"/>
+        <c:axId val="110409728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54225728"/>
+        <c:crossAx val="110429312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -785,7 +785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54225728"/>
+        <c:axId val="110429312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +802,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46140928"/>
+        <c:crossAx val="110409728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1574,7 @@
         <v>230.72300000000001</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E11" si="0">AVERAGE(B2:D2)</f>
+        <f>AVERAGE(B2:D2)</f>
         <v>230.57600000000002</v>
       </c>
     </row>
@@ -1595,92 +1595,92 @@
         <v>212.679</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B3:D3)</f>
         <v>208.63366666666664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(3*60+28.566)</f>
+        <v>208.566</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM(3*60+27.92)</f>
+        <v>207.92000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <f>SUM(3*60+17.168)</f>
+        <v>197.16800000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <f>AVERAGE(B4:D4)</f>
+        <v>204.55133333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <f>SUM(2*60+36.946)</f>
         <v>156.946</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f>SUM(2*60+37.732)</f>
         <v>157.732</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <f>SUM(2*60+38.816)</f>
         <v>158.816</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
+      <c r="E5" s="1">
+        <f>AVERAGE(B5:D5)</f>
         <v>157.83133333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f>SUM(2*60+38.748)</f>
         <v>158.74799999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>SUM(2*60+36.6)</f>
         <v>156.6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>SUM(2*60+37.02)</f>
         <v>157.02000000000001</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
+      <c r="E6" s="1">
+        <f>AVERAGE(B6:D6)</f>
         <v>157.45599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>SUM(1*60+35.877)</f>
         <v>95.87700000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>SUM(1*60+35.821)</f>
         <v>95.820999999999998</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>SUM(1*60+36.497)</f>
         <v>96.497</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
+      <c r="E7" s="1">
+        <f>AVERAGE(B7:D7)</f>
         <v>96.064999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <f>SUM(0*60+28.438)</f>
-        <v>28.437999999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <f>SUM(0*60+28.989)</f>
-        <v>28.989000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <f>SUM(0*60+28.973)</f>
-        <v>28.972999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>28.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1700,7 +1700,7 @@
         <v>9.5660000000000007</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B8:D8)</f>
         <v>9.838000000000001</v>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
         <v>7.4009999999999998</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B9:D9)</f>
         <v>8.1603333333333321</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>7.8949999999999996</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B10:D10)</f>
         <v>7.9379999999999997</v>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
         <v>4.0380000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B11:D11)</f>
         <v>4.0179999999999998</v>
       </c>
     </row>
@@ -1785,34 +1785,34 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>157.83133333333333</v>
+        <v>204.55133333333333</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>157.45599999999999</v>
+        <v>157.83133333333333</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>96.064999999999998</v>
+        <v>157.45599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2">
-        <v>28.8</v>
+        <v>96.064999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1867,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1886,7 +1886,7 @@
         <v>4029.3130000000001</v>
       </c>
       <c r="E2" s="3">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="E2:E11" si="0">AVERAGE(B2:D2)</f>
         <v>4029.3130000000001</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
         <v>3759.9110000000001</v>
       </c>
       <c r="E3" s="3">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>3759.9110000000001</v>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
         <v>1756.1089999999999</v>
       </c>
       <c r="E4" s="3">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>1756.1089999999999</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>1686.37</v>
       </c>
       <c r="E5" s="3">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>1679.06</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>1607.6569999999999</v>
       </c>
       <c r="E6" s="3">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>1607.6569999999999</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
         <v>993.58899999999994</v>
       </c>
       <c r="E7" s="3">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>992.13</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
         <v>73.194999999999993</v>
       </c>
       <c r="E8" s="3">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>73.137666666666675</v>
       </c>
       <c r="K8" t="s">
@@ -2004,7 +2004,7 @@
         <v>35.130000000000003</v>
       </c>
       <c r="E9" s="3">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>35.429666666666662</v>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
         <v>18.821000000000002</v>
       </c>
       <c r="E10" s="3">
-        <f>AVERAGE(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>20.352999999999998</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
         <v>6.6479999999999997</v>
       </c>
       <c r="E11" s="3">
-        <f>AVERAGE(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>6.6236666666666659</v>
       </c>
     </row>

--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="353" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="353" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fannkuch-redux" sheetId="1" r:id="rId1"/>
     <sheet name="fasta" sheetId="2" r:id="rId2"/>
     <sheet name="mandelbrot" sheetId="3" r:id="rId3"/>
+    <sheet name="nroot" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fasta!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mandelbrot!$E$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">nroot!$E$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>C (4.6)</t>
   </si>
@@ -294,11 +296,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="104013312"/>
-        <c:axId val="80844416"/>
+        <c:axId val="114961920"/>
+        <c:axId val="78026368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104013312"/>
+        <c:axId val="114961920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +310,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80844416"/>
+        <c:crossAx val="78026368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -317,7 +319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80844416"/>
+        <c:axId val="78026368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -334,7 +336,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="104013312"/>
+        <c:crossAx val="114961920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -531,11 +533,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110408192"/>
-        <c:axId val="80846144"/>
+        <c:axId val="115589632"/>
+        <c:axId val="78028096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110408192"/>
+        <c:axId val="115589632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +546,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80846144"/>
+        <c:crossAx val="78028096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80846144"/>
+        <c:axId val="78028096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +571,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110408192"/>
+        <c:crossAx val="115589632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,11 +764,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="110409728"/>
-        <c:axId val="110429312"/>
+        <c:axId val="115591168"/>
+        <c:axId val="115344512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110409728"/>
+        <c:axId val="115591168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +778,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110429312"/>
+        <c:crossAx val="115344512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -785,7 +787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110429312"/>
+        <c:axId val="115344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +804,238 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110409728"/>
+        <c:crossAx val="115591168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> CLBG:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n-body n=50000000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>nroot!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Haskell GHC (7.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ruby (1.9.2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perl (5.14)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>JRuby (1.5)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python (3.2)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Objeck (3.1.2)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Erlang (HiPE 5.8.3) </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ocaml (3.12)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>C (4.6)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Java (server 1.7.0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nroot!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1884.7125000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1337.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1302.5520000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>925.50700000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>837.95749999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632.41733333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.442000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.437666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.238999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2043333333333326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="49372672"/>
+        <c:axId val="43091072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49372672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43091072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43091072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="49372672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,6 +1142,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195264</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1546,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:B26"/>
     </sheetView>
   </sheetViews>
@@ -1574,7 +1844,7 @@
         <v>230.72300000000001</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
+        <f t="shared" ref="E2:E11" si="0">AVERAGE(B2:D2)</f>
         <v>230.57600000000002</v>
       </c>
     </row>
@@ -1595,7 +1865,7 @@
         <v>212.679</v>
       </c>
       <c r="E3" s="1">
-        <f>AVERAGE(B3:D3)</f>
+        <f t="shared" si="0"/>
         <v>208.63366666666664</v>
       </c>
     </row>
@@ -1616,7 +1886,7 @@
         <v>197.16800000000001</v>
       </c>
       <c r="E4" s="1">
-        <f>AVERAGE(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>204.55133333333333</v>
       </c>
     </row>
@@ -1637,7 +1907,7 @@
         <v>158.816</v>
       </c>
       <c r="E5" s="1">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>157.83133333333333</v>
       </c>
     </row>
@@ -1658,7 +1928,7 @@
         <v>157.02000000000001</v>
       </c>
       <c r="E6" s="1">
-        <f>AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>157.45599999999999</v>
       </c>
     </row>
@@ -1679,7 +1949,7 @@
         <v>96.497</v>
       </c>
       <c r="E7" s="1">
-        <f>AVERAGE(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>96.064999999999998</v>
       </c>
     </row>
@@ -1700,7 +1970,7 @@
         <v>9.5660000000000007</v>
       </c>
       <c r="E8" s="1">
-        <f>AVERAGE(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>9.838000000000001</v>
       </c>
     </row>
@@ -1721,7 +1991,7 @@
         <v>7.4009999999999998</v>
       </c>
       <c r="E9" s="1">
-        <f>AVERAGE(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>8.1603333333333321</v>
       </c>
     </row>
@@ -1742,7 +2012,7 @@
         <v>7.8949999999999996</v>
       </c>
       <c r="E10" s="1">
-        <f>AVERAGE(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>7.9379999999999997</v>
       </c>
     </row>
@@ -1763,7 +2033,7 @@
         <v>4.0380000000000003</v>
       </c>
       <c r="E11" s="1">
-        <f>AVERAGE(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>4.0179999999999998</v>
       </c>
     </row>
@@ -1867,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2090,4 +2360,219 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f>SUM(31*60+23.621)</f>
+        <v>1883.6210000000001</v>
+      </c>
+      <c r="C2">
+        <f>SUM(31*60+25.804)</f>
+        <v>1885.8040000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <f>AVERAGE(B2:D2)</f>
+        <v>1884.7125000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <f>SUM(22*60+23.863)</f>
+        <v>1343.8630000000001</v>
+      </c>
+      <c r="C3">
+        <f>SUM(22*60+11.797)</f>
+        <v>1331.797</v>
+      </c>
+      <c r="E3" s="3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>1337.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <f>SUM(21*60+39.259)</f>
+        <v>1299.259</v>
+      </c>
+      <c r="C4">
+        <f>SUM(21*60+45.845)</f>
+        <v>1305.845</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE(B4:D4)</f>
+        <v>1302.5520000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>SUM(15*60+13.488)</f>
+        <v>913.48800000000006</v>
+      </c>
+      <c r="C5">
+        <f>SUM(15*60+37.526)</f>
+        <v>937.52599999999995</v>
+      </c>
+      <c r="E5" s="3">
+        <f>AVERAGE(B5:D5)</f>
+        <v>925.50700000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>SUM(14*60+10.809)</f>
+        <v>850.80899999999997</v>
+      </c>
+      <c r="C6">
+        <f>SUM(13*60+45.106)</f>
+        <v>825.10599999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <f>AVERAGE(B6:D6)</f>
+        <v>837.95749999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <f>SUM(10*60+29.511)</f>
+        <v>629.51099999999997</v>
+      </c>
+      <c r="C7">
+        <f>SUM(10*60+37.887)</f>
+        <v>637.88699999999994</v>
+      </c>
+      <c r="D7">
+        <f>SUM(10*60+29.854)</f>
+        <v>629.85400000000004</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(B7:D7)</f>
+        <v>632.41733333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>SUM(1*60+29.343)</f>
+        <v>89.343000000000004</v>
+      </c>
+      <c r="C8">
+        <f>SUM(1*60+29.214)</f>
+        <v>89.213999999999999</v>
+      </c>
+      <c r="D8">
+        <f>SUM(1*60+29.769)</f>
+        <v>89.769000000000005</v>
+      </c>
+      <c r="E8" s="3">
+        <f>AVERAGE(B8:D8)</f>
+        <v>89.442000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>SUM(0*60+20.397)</f>
+        <v>20.396999999999998</v>
+      </c>
+      <c r="C9">
+        <f>SUM(0*60+20.396)</f>
+        <v>20.396000000000001</v>
+      </c>
+      <c r="D9">
+        <f>SUM(0*60+20.52)</f>
+        <v>20.52</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(B9:D9)</f>
+        <v>20.437666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>SUM(0*60+9.26)</f>
+        <v>9.26</v>
+      </c>
+      <c r="C10">
+        <f>SUM(0*60+9.324)</f>
+        <v>9.3239999999999998</v>
+      </c>
+      <c r="D10">
+        <f>SUM(0*60+9.133)</f>
+        <v>9.1329999999999991</v>
+      </c>
+      <c r="E10" s="3">
+        <f>AVERAGE(B10:D10)</f>
+        <v>9.238999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>SUM(0*60+9.214)</f>
+        <v>9.2140000000000004</v>
+      </c>
+      <c r="C11">
+        <f>SUM(0*60+9.15)</f>
+        <v>9.15</v>
+      </c>
+      <c r="D11">
+        <f>SUM(0*60+9.249)</f>
+        <v>9.2490000000000006</v>
+      </c>
+      <c r="E11" s="3">
+        <f>AVERAGE(B11:D11)</f>
+        <v>9.2043333333333326</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:E11">
+    <sortState ref="A2:E11">
+      <sortCondition descending="1" ref="E1:E11"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/wip/timming/benchmarks.xlsx
+++ b/wip/timming/benchmarks.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="353" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="353" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fannkuch-redux" sheetId="1" r:id="rId1"/>
     <sheet name="fasta" sheetId="2" r:id="rId2"/>
     <sheet name="mandelbrot" sheetId="3" r:id="rId3"/>
-    <sheet name="nroot" sheetId="4" r:id="rId4"/>
+    <sheet name="spectralnorm" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fannkuch-redux'!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fasta!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mandelbrot!$E$1:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">nroot!$E$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">spectralnorm!$E$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
@@ -296,11 +297,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="114961920"/>
-        <c:axId val="78026368"/>
+        <c:axId val="108346880"/>
+        <c:axId val="95524480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114961920"/>
+        <c:axId val="108346880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +311,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78026368"/>
+        <c:crossAx val="95524480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -319,7 +320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78026368"/>
+        <c:axId val="95524480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,7 +337,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="114961920"/>
+        <c:crossAx val="108346880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -420,6 +421,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -533,11 +535,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115589632"/>
-        <c:axId val="78028096"/>
+        <c:axId val="109498880"/>
+        <c:axId val="95526208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115589632"/>
+        <c:axId val="109498880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +548,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78028096"/>
+        <c:crossAx val="95526208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78028096"/>
+        <c:axId val="95526208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,13 +573,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="115589632"/>
+        <c:crossAx val="109498880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -764,11 +767,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="115591168"/>
-        <c:axId val="115344512"/>
+        <c:axId val="109500416"/>
+        <c:axId val="42796160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115591168"/>
+        <c:axId val="109500416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +781,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115344512"/>
+        <c:crossAx val="42796160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -787,7 +790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115344512"/>
+        <c:axId val="42796160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +807,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="115591168"/>
+        <c:crossAx val="109500416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -867,19 +870,7 @@
               <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> CLBG:</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>n-body n=50000000</a:t>
+              <a:t> CLBG spectral-norm n=5500</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -909,20 +900,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nroot!$A$2:$A$11</c:f>
+              <c:f>spectralnorm!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Haskell GHC (7.1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Perl (5.14)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>JRuby (1.5)</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Ruby (1.9.2)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Perl (5.14)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>JRuby (1.5)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Python (3.2)</c:v>
@@ -937,49 +928,49 @@
                   <c:v>Ocaml (3.12)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Java (server 1.7.0)</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>C (4.6)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Java (server 1.7.0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nroot!$E$2:$E$11</c:f>
+              <c:f>spectralnorm!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1884.7125000000001</c:v>
+                  <c:v>3678.3850000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1337.83</c:v>
+                  <c:v>828.01899999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1302.5520000000001</c:v>
+                  <c:v>492.52766666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>925.50700000000006</c:v>
+                  <c:v>487.02600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>837.95749999999998</c:v>
+                  <c:v>366.01366666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>632.41733333333332</c:v>
+                  <c:v>17.100999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.442000000000007</c:v>
+                  <c:v>11.729333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.437666666666669</c:v>
+                  <c:v>9.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.238999999999999</c:v>
+                  <c:v>5.3659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2043333333333326</c:v>
+                  <c:v>3.1173333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,11 +986,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="49372672"/>
-        <c:axId val="43091072"/>
+        <c:axId val="144259072"/>
+        <c:axId val="96918848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49372672"/>
+        <c:axId val="144259072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1000,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43091072"/>
+        <c:crossAx val="96918848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43091072"/>
+        <c:axId val="96918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1026,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49372672"/>
+        <c:crossAx val="144259072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1165,20 +1156,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>195264</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>157164</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2137,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2358,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2381,67 +2372,79 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <f>SUM(31*60+23.621)</f>
-        <v>1883.6210000000001</v>
+        <f>SUM(61*60+52.547)</f>
+        <v>3712.547</v>
       </c>
       <c r="C2">
-        <f>SUM(31*60+25.804)</f>
-        <v>1885.8040000000001</v>
+        <f>SUM(60*60+44.223)</f>
+        <v>3644.223</v>
       </c>
       <c r="E2" s="3">
         <f>AVERAGE(B2:D2)</f>
-        <v>1884.7125000000001</v>
+        <v>3678.3850000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <f>SUM(22*60+23.863)</f>
-        <v>1343.8630000000001</v>
+        <f>SUM(13*60+34.31)</f>
+        <v>814.31</v>
       </c>
       <c r="C3">
-        <f>SUM(22*60+11.797)</f>
-        <v>1331.797</v>
+        <f>SUM(14*60+0.576)</f>
+        <v>840.57600000000002</v>
+      </c>
+      <c r="D3">
+        <f>SUM(13*60+49.171)</f>
+        <v>829.17100000000005</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE(B3:D3)</f>
-        <v>1337.83</v>
+        <v>828.01899999999989</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <f>SUM(21*60+39.259)</f>
-        <v>1299.259</v>
+        <f>SUM(8*60+2.875)</f>
+        <v>482.875</v>
       </c>
       <c r="C4">
-        <f>SUM(21*60+45.845)</f>
-        <v>1305.845</v>
+        <f>SUM(8*60+17.876)</f>
+        <v>497.87599999999998</v>
+      </c>
+      <c r="D4">
+        <f>SUM(8*60+16.832)</f>
+        <v>496.83199999999999</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE(B4:D4)</f>
-        <v>1302.5520000000001</v>
+        <v>492.52766666666668</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <f>SUM(15*60+13.488)</f>
-        <v>913.48800000000006</v>
+        <f>SUM(8*60+6.412)</f>
+        <v>486.41199999999998</v>
       </c>
       <c r="C5">
-        <f>SUM(15*60+37.526)</f>
-        <v>937.52599999999995</v>
+        <f>SUM(8*60+6.079)</f>
+        <v>486.07900000000001</v>
+      </c>
+      <c r="D5">
+        <f>SUM(8*60+8.587)</f>
+        <v>488.58699999999999</v>
       </c>
       <c r="E5" s="3">
         <f>AVERAGE(B5:D5)</f>
-        <v>925.50700000000006</v>
+        <v>487.02600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2449,16 +2452,20 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>SUM(14*60+10.809)</f>
-        <v>850.80899999999997</v>
+        <f>SUM(6*60+5.222)</f>
+        <v>365.22199999999998</v>
       </c>
       <c r="C6">
-        <f>SUM(13*60+45.106)</f>
-        <v>825.10599999999999</v>
+        <f>SUM(6*60+3.848)</f>
+        <v>363.84800000000001</v>
+      </c>
+      <c r="D6">
+        <f>SUM(6*60+8.971)</f>
+        <v>368.971</v>
       </c>
       <c r="E6" s="3">
         <f>AVERAGE(B6:D6)</f>
-        <v>837.95749999999998</v>
+        <v>366.01366666666667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2466,20 +2473,20 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <f>SUM(10*60+29.511)</f>
-        <v>629.51099999999997</v>
+        <f>SUM(0*60+17.128)</f>
+        <v>17.128</v>
       </c>
       <c r="C7">
-        <f>SUM(10*60+37.887)</f>
-        <v>637.88699999999994</v>
+        <f>SUM(0*60+17.142)</f>
+        <v>17.141999999999999</v>
       </c>
       <c r="D7">
-        <f>SUM(10*60+29.854)</f>
-        <v>629.85400000000004</v>
+        <f>SUM(0*60+17.033)</f>
+        <v>17.033000000000001</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE(B7:D7)</f>
-        <v>632.41733333333332</v>
+        <v>17.100999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2487,20 +2494,20 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <f>SUM(1*60+29.343)</f>
-        <v>89.343000000000004</v>
+        <f>SUM(0*60+11.709)</f>
+        <v>11.709</v>
       </c>
       <c r="C8">
-        <f>SUM(1*60+29.214)</f>
-        <v>89.213999999999999</v>
+        <f>SUM(0*60+11.854)</f>
+        <v>11.853999999999999</v>
       </c>
       <c r="D8">
-        <f>SUM(1*60+29.769)</f>
-        <v>89.769000000000005</v>
+        <f>SUM(0*60+11.625)</f>
+        <v>11.625</v>
       </c>
       <c r="E8" s="3">
         <f>AVERAGE(B8:D8)</f>
-        <v>89.442000000000007</v>
+        <v>11.729333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2508,62 +2515,62 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <f>SUM(0*60+20.397)</f>
-        <v>20.396999999999998</v>
+        <f>SUM(0*60+9.609)</f>
+        <v>9.609</v>
       </c>
       <c r="C9">
-        <f>SUM(0*60+20.396)</f>
-        <v>20.396000000000001</v>
+        <f>SUM(0*60+9.586)</f>
+        <v>9.5860000000000003</v>
       </c>
       <c r="D9">
-        <f>SUM(0*60+20.52)</f>
-        <v>20.52</v>
+        <f>SUM(0*60+9.575)</f>
+        <v>9.5749999999999993</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE(B9:D9)</f>
-        <v>20.437666666666669</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <f>SUM(0*60+9.26)</f>
-        <v>9.26</v>
+        <f>SUM(0*60+5.596)</f>
+        <v>5.5960000000000001</v>
       </c>
       <c r="C10">
-        <f>SUM(0*60+9.324)</f>
-        <v>9.3239999999999998</v>
+        <f>SUM(0*60+5.244)</f>
+        <v>5.2439999999999998</v>
       </c>
       <c r="D10">
-        <f>SUM(0*60+9.133)</f>
-        <v>9.1329999999999991</v>
+        <f>SUM(0*60+5.258)</f>
+        <v>5.258</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE(B10:D10)</f>
-        <v>9.238999999999999</v>
+        <v>5.3659999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <f>SUM(0*60+9.214)</f>
-        <v>9.2140000000000004</v>
+        <f>SUM(0*60+3.103)</f>
+        <v>3.1030000000000002</v>
       </c>
       <c r="C11">
-        <f>SUM(0*60+9.15)</f>
-        <v>9.15</v>
+        <f>SUM(0*60+3.138)</f>
+        <v>3.1379999999999999</v>
       </c>
       <c r="D11">
-        <f>SUM(0*60+9.249)</f>
-        <v>9.2490000000000006</v>
+        <f>SUM(0*60+3.111)</f>
+        <v>3.1110000000000002</v>
       </c>
       <c r="E11" s="3">
         <f>AVERAGE(B11:D11)</f>
-        <v>9.2043333333333326</v>
+        <v>3.1173333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2573,6 +2580,24 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>